--- a/Models/Model_5_min_perm/ModelData.xlsx
+++ b/Models/Model_5_min_perm/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t>ROCK</t>
   </si>
@@ -356,6 +357,24 @@
   </si>
   <si>
     <t>mult</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1476,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
@@ -3063,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
